--- a/tut04/output_by_subject/MM303.csv.xlsx
+++ b/tut04/output_by_subject/MM303.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,622 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1901MM01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1901MM02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1901MM03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1901MM04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1901MM05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1901MM06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1901MM07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1901MM09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1901MM10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1901MM11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1901MM13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1901MM14</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1901MM15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1901MM18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1901MM20</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1901MM22</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1901MM23</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1901MM25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1901MM26</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1901MM27</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1901MM28</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1901MM30</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1901MM31</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1901MM32</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1901MM33</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1901MM35</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1901MM36</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1901MM37</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MM303</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
